--- a/beadando/meresek.xlsx
+++ b/beadando/meresek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Egyetem\Parhuzamos\p-rhuzamos-eszk-z-k\beadando\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8E8019F-B212-400C-B59D-97BCD3D40B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B3D9B4E-68E7-43CE-9D6F-1902DEDF6E04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E383306E-6B50-4E63-93DC-809FF1AC6D8B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>OpenCL</t>
   </si>
@@ -50,6 +50,27 @@
   </si>
   <si>
     <t>Number of digits</t>
+  </si>
+  <si>
+    <t>Naív verzió futási idők</t>
+  </si>
+  <si>
+    <t>Naív verzió</t>
+  </si>
+  <si>
+    <t>N = 1</t>
+  </si>
+  <si>
+    <t>N = 2</t>
+  </si>
+  <si>
+    <t>N = 4</t>
+  </si>
+  <si>
+    <t>N = 9</t>
+  </si>
+  <si>
+    <t>Karatsuba</t>
   </si>
 </sst>
 </file>
@@ -86,11 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -684,7 +706,2713 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naív verzió</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$37:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4169.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E4E-47B6-A55C-CCDAD7758F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$37:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E4E-47B6-A55C-CCDAD7758F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$37:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>954.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E4E-47B6-A55C-CCDAD7758F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$37:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1E4E-47B6-A55C-CCDAD7758F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$I$37:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1E4E-47B6-A55C-CCDAD7758F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Karatsuba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$J$37:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1E4E-47B6-A55C-CCDAD7758F3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1480609551"/>
+        <c:axId val="1480602479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1480609551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480602479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1480602479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480609551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Naív verzió</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$37:$E$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.48099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.86</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>154.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2746</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4169.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D3F4-486D-A746-22882E8CF4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$37:$F$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>223.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>653</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2367</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3566</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D3F4-486D-A746-22882E8CF4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$37:$G$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1000000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>66.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>954.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3F4-486D-A746-22882E8CF4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$H$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$H$37:$H$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70.599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>205.4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>284.33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3F4-486D-A746-22882E8CF4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$I$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>N = 9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$I$37:$I$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62.5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>82.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D3F4-486D-A746-22882E8CF4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$J$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Karatsuba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$37:$D$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$J$37:$J$47</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D3F4-486D-A746-22882E8CF4BE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1480609551"/>
+        <c:axId val="1480602479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1480609551"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480602479"/>
+        <c:crossesAt val="1.0000000000000002E-3"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1480602479"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time(ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1480609551"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="hu-HU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>OpenCL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Munka1!$D$5:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8192</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1000000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0999999999999994E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4390000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.4356</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32.755000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.57</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8320-40C9-B8BA-C30CE5880340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Program</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$F$5:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8320-40C9-B8BA-C30CE5880340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Munka1!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Munka1!$G$5:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>627</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2727</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4062</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8320-40C9-B8BA-C30CE5880340}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="602129344"/>
+        <c:axId val="602133920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="602129344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602133920"/>
+        <c:crossesAt val="1.0000000000000003E-4"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="602133920"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="hu-HU"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="hu-HU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="602129344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="hu-HU"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="hu-HU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="hu-HU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1227,6 +3955,1515 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1260,6 +5497,118 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>147636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagram 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC914BD8-2B49-0CDA-DFB8-1BE02A17EBA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>109539</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagram 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E40FDC5B-2218-488B-8948-D98AC657427D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagram 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{310078DE-A358-4EC4-AB1C-707E7E16D284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1565,18 +5914,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E028B38A-6922-419D-96E7-9822646898F7}">
-  <dimension ref="D3:G15"/>
+  <dimension ref="D2:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="J43" workbookViewId="0">
+      <selection activeCell="AB66" sqref="AB66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
     <row r="3" spans="4:7" x14ac:dyDescent="0.25">
       <c r="E3" s="1" t="s">
         <v>3</v>
@@ -1753,9 +6112,287 @@
         <v>4062</v>
       </c>
     </row>
+    <row r="36" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" t="s">
+        <v>9</v>
+      </c>
+      <c r="I36" t="s">
+        <v>10</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>16</v>
+      </c>
+      <c r="E37">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F37">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="G37">
+        <v>0.01</v>
+      </c>
+      <c r="H37">
+        <v>0.01</v>
+      </c>
+      <c r="I37">
+        <v>2E-3</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>32</v>
+      </c>
+      <c r="E38">
+        <v>3.1E-2</v>
+      </c>
+      <c r="F38">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="G38">
+        <v>0.02</v>
+      </c>
+      <c r="H38">
+        <v>0.01</v>
+      </c>
+      <c r="I38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>64</v>
+      </c>
+      <c r="E39">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="F39">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="G39">
+        <v>0.11</v>
+      </c>
+      <c r="H39">
+        <v>0.02</v>
+      </c>
+      <c r="I39">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>128</v>
+      </c>
+      <c r="E40">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="F40">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="G40">
+        <v>0.375</v>
+      </c>
+      <c r="H40">
+        <v>0.11</v>
+      </c>
+      <c r="I40">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>256</v>
+      </c>
+      <c r="E41">
+        <v>1.86</v>
+      </c>
+      <c r="F41">
+        <v>11.26</v>
+      </c>
+      <c r="G41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0.32</v>
+      </c>
+      <c r="I41">
+        <v>0.44</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>512</v>
+      </c>
+      <c r="E42">
+        <v>6.6</v>
+      </c>
+      <c r="F42">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="G42">
+        <v>8.6</v>
+      </c>
+      <c r="H42">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="I42">
+        <v>3</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1024</v>
+      </c>
+      <c r="E43">
+        <v>34.4</v>
+      </c>
+      <c r="F43">
+        <v>77.2</v>
+      </c>
+      <c r="G43">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="H43">
+        <v>8.9</v>
+      </c>
+      <c r="I43">
+        <v>3.8</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>2048</v>
+      </c>
+      <c r="E44">
+        <v>154.6</v>
+      </c>
+      <c r="F44">
+        <v>223.6</v>
+      </c>
+      <c r="G44" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="H44" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="I44">
+        <v>8.6</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>4096</v>
+      </c>
+      <c r="E45">
+        <v>652</v>
+      </c>
+      <c r="F45">
+        <v>653</v>
+      </c>
+      <c r="G45">
+        <v>200</v>
+      </c>
+      <c r="H45" s="2">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="I45">
+        <v>17</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <f>D45*2</f>
+        <v>8192</v>
+      </c>
+      <c r="E46">
+        <v>2746</v>
+      </c>
+      <c r="F46">
+        <v>2367</v>
+      </c>
+      <c r="G46">
+        <v>678</v>
+      </c>
+      <c r="H46" s="2">
+        <v>205.4</v>
+      </c>
+      <c r="I46">
+        <v>62.5</v>
+      </c>
+      <c r="J46">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>10000</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4169.5</v>
+      </c>
+      <c r="F47">
+        <v>3566</v>
+      </c>
+      <c r="G47">
+        <v>954.5</v>
+      </c>
+      <c r="H47" s="2">
+        <v>284.33</v>
+      </c>
+      <c r="I47">
+        <v>82.5</v>
+      </c>
+      <c r="J47">
+        <v>3.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E3:G3"/>
+    <mergeCell ref="D2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
